--- a/김준섭/부품목록.xlsx
+++ b/김준섭/부품목록.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjs\Projects\HanaDulSAT\김준섭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F0238D-9389-4096-AB54-82AD9C41B292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D18FEF8-CAD6-42A1-B6A5-32B15949DC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F0E2BD5-06F7-40C6-ACA6-9CB3F03690A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3F0E2BD5-06F7-40C6-ACA6-9CB3F03690A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +189,54 @@
   </si>
   <si>
     <t>https://shop.fruitychutes.com/collections/parachutes/products/36-compact-elliptical-parachute-4-8lb-20fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개당 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D프린팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지름 10mm 100mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용수철, 볼트, 스탠드 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 소켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회로기판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18650 배터리 소켓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -249,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,8 +308,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B1A5E6-1258-4143-B8B8-3EC33BA4E713}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -874,4 +926,308 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65019604-5BF1-4D31-B82D-CD1438CBE1ED}">
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="B2:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">D4*E4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>44.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <f>D9*E9</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <f>D10*E10</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f>D13*E13</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <f>D14*E14</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17">
+        <f>SUM(F3:F16)</f>
+        <v>807.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>